--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1135680.734430407</v>
+        <v>1129676.524615128</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1042617.113969144</v>
+        <v>416855.1052283193</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10877020.40198928</v>
+        <v>11133453.37367292</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>95.93651183305629</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>17.35112070699443</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93.5063790524415</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -825,7 +825,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -834,7 +834,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>39.47168301525389</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -870,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>201.0564857346847</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>111.4702381038696</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1071,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>135.8241034250917</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>189.7661037657141</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1138,10 +1138,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>12.87606160420928</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>92.47445699814351</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.562013214737716</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1305,10 +1305,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,22 +1341,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>229.796569204138</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>81.278598673301</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>243.2391485592454</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>186.9166231085228</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576146</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>111.5361117049704</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2013,7 +2013,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>31.26260713376563</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187843</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T21" t="n">
         <v>188.3046392154443</v>
@@ -2247,13 +2247,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>99.97427419833875</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>6.434538210426389</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881266</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2484,16 +2484,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>253.2918698186439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,16 +2718,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>29.24923305751801</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>253.2918698186439</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>243.1373908222617</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>108.5813113004299</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3435,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>53.3007612348484</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>41.74133133758713</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3562,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3669,16 +3669,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>99.97427419833815</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229352</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>41.02686156549824</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3793,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>74.20064764874429</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.0260335000785</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4146,13 +4146,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>280.9847360830855</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2005.586939522201</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C2" t="n">
-        <v>1636.624422581789</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>1278.358723975039</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3228.700254101034</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3022.722506485256</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>2769.192029759092</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V2" t="n">
-        <v>2769.192029759092</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W2" t="n">
-        <v>2769.192029759092</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X2" t="n">
-        <v>2395.726271498012</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y2" t="n">
-        <v>2005.586939522201</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927788</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064629</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2342.011860380093</v>
+        <v>2383.578154064437</v>
       </c>
       <c r="C4" t="n">
-        <v>2173.075677452186</v>
+        <v>2214.64197113653</v>
       </c>
       <c r="D4" t="n">
-        <v>2022.95903803985</v>
+        <v>2064.525331724195</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.95903803985</v>
+        <v>1916.612238141801</v>
       </c>
       <c r="F4" t="n">
-        <v>1876.06909054194</v>
+        <v>1769.722290643891</v>
       </c>
       <c r="G4" t="n">
-        <v>1708.366253916659</v>
+        <v>1602.01945401861</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134517</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952862</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399798</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348674</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.49300379717</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396719</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102584</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022997</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456657</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.775364366699</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S4" t="n">
-        <v>3235.775364366699</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="T4" t="n">
-        <v>3235.775364366699</v>
+        <v>3014.008748936224</v>
       </c>
       <c r="U4" t="n">
-        <v>2946.672497492343</v>
+        <v>3014.008748936224</v>
       </c>
       <c r="V4" t="n">
-        <v>2946.672497492343</v>
+        <v>3014.008748936224</v>
       </c>
       <c r="W4" t="n">
-        <v>2657.255327455382</v>
+        <v>3014.008748936224</v>
       </c>
       <c r="X4" t="n">
-        <v>2657.255327455382</v>
+        <v>2786.019198038207</v>
       </c>
       <c r="Y4" t="n">
-        <v>2436.462748311852</v>
+        <v>2565.226618894677</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1881.708680670285</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1703.012869240228</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1344.747170633477</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.542934265601</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2641.774278995486</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.308520734407</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y5" t="n">
-        <v>2268.308520734407</v>
+        <v>2071.975386180639</v>
       </c>
     </row>
     <row r="6">
@@ -4640,7 +4640,7 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4652,16 +4652,16 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>793.5839474470786</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>624.6477645191717</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>624.6477645191717</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4752,25 +4752,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1700.268026780272</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="U7" t="n">
-        <v>1615.697475415547</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="V7" t="n">
-        <v>1615.697475415547</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="W7" t="n">
-        <v>1424.014542318866</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>1196.024991420848</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>975.2324122773183</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1274.539111149741</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>905.5765942093292</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>892.5704713767946</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450754</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X8" t="n">
-        <v>2051.278283189674</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y8" t="n">
-        <v>1661.138951213863</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4874,10 +4874,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4886,19 +4886,19 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>994.2880032601528</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>825.3518203322459</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>675.2351809199101</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396067</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4989,25 +4989,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1224.739181610489</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1224.739181610489</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>1224.739181610489</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>1224.739181610489</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>1003.946602466959</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1822.632236038044</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1453.669719097632</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1095.404020490882</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>709.6157678926375</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>298.6298631030299</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218343</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609171</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.605821609171</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>2972.837166339057</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>2599.371408077977</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2209.232076102166</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031477</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158131</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.613680441807</v>
+        <v>680.448174698413</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139006</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088493</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1927.294548088493</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1927.294548088493</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1722.044275313594</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.054724415577</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.262145272047</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2303.170539913434</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1934.208022973022</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1575.942324366272</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1190.154071768027</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>779.1681669784198</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>364.0957168234162</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.605821609171</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3325.605821609171</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3325.605821609171</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3079.909711953368</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2689.770379977556</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927781</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064576</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158131</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1091.613680441807</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>922.6774975139006</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764914</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581905</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502319</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935978</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088493</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>1927.294548088493</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U16" t="n">
-        <v>1927.294548088493</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V16" t="n">
-        <v>1927.294548088493</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W16" t="n">
-        <v>1722.044275313594</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X16" t="n">
-        <v>1494.054724415577</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y16" t="n">
-        <v>1273.262145272047</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="17">
@@ -5506,43 +5506,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756265</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913851</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>738.7889117913851</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1366.386875345991</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5700,25 +5700,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.329899359456</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y19" t="n">
-        <v>1211.329899359456</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192582</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756264</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468469</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962605</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1465.200520057987</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2092.798483612594</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2757.723669558403</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C22" t="n">
-        <v>2588.787486630496</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>2438.67084721816</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>2337.686731866303</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>2337.686731866303</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.02030972914</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389148</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098133</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671692</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398592</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650994</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.932614305898</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328839</v>
+        <v>2190.563011941682</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673037</v>
+        <v>1901.48778528588</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467151</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.15426443019</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X22" t="n">
-        <v>3160.164713532173</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y22" t="n">
-        <v>2939.372134388643</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="23">
@@ -5980,16 +5980,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075805</v>
@@ -6013,13 +6013,13 @@
         <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797183</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191923</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349509</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061502</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>847.644273983533</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711973</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888042</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6174,25 +6174,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>2191.112710026075</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1936.428221820188</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1647.011051783227</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1419.02150088521</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.22892174168</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6220,19 +6220,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6244,10 +6244,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>484.8243144841095</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>980.1499206998682</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2795.224693449923</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C28" t="n">
-        <v>2626.288510522016</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D28" t="n">
-        <v>2626.288510522016</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E28" t="n">
-        <v>2626.288510522016</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>2479.398563024105</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>2479.398563024105</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4661.288472542514</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4478.433638197418</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>4258.832173220359</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U28" t="n">
-        <v>3969.756946564557</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V28" t="n">
-        <v>3715.072458358671</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W28" t="n">
-        <v>3425.65528832171</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X28" t="n">
-        <v>3197.665737423692</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y28" t="n">
-        <v>2976.873158280162</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="29">
@@ -6445,13 +6445,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,22 +6460,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6545,19 +6545,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6691,28 +6691,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,7 +6721,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6782,19 +6782,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6885,25 +6885,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>2264.108249235165</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>2264.108249235165</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V34" t="n">
-        <v>2018.514925172274</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="35">
@@ -6925,40 +6925,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>2231.58852738579</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>2231.58852738579</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>2680.685310603265</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>3278.063798229817</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>3905.661761784424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>696.7084350851671</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>527.7722521572603</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D37" t="n">
-        <v>377.6556127449245</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E37" t="n">
-        <v>229.7425191625314</v>
+        <v>282.8695714929399</v>
       </c>
       <c r="F37" t="n">
-        <v>175.9033664000582</v>
+        <v>135.9796239950296</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1327.139029956954</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1099.149479058937</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>878.3568999154069</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7168,55 +7168,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="D40" t="n">
-        <v>194.8007783998286</v>
+        <v>597.2570777219835</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797187</v>
+        <v>449.3439841395904</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>302.454036641676</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>135.2579373565559</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="41">
@@ -7402,28 +7402,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>335.9629114732377</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>700.7543264856228</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>700.7543264856228</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>550.637687073287</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U46" t="n">
-        <v>1693.638114770018</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V46" t="n">
-        <v>1438.953626564131</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W46" t="n">
-        <v>1149.53645652717</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X46" t="n">
-        <v>921.5469056291529</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y46" t="n">
-        <v>700.7543264856228</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>181.1251564493155</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>98.55338150863629</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>126.4919521192237</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>99.26785128072137</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23785,7 +23785,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.449507180950604e-12</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>68.29586847696686</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23901,7 +23901,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23983,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.330580173293129e-12</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>46.45968844823042</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>210.9709121168619</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>2.046363078989089e-12</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>32.89260457060021</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24606,16 +24606,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>37.12601365260367</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>32.89260457060021</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>43.72409101823415</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,16 +25125,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>9.000252501566337</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>110.0033420516649</v>
       </c>
     </row>
     <row r="35">
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>92.12028678808284</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>123.7828069546817</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25557,16 +25557,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>99.26785128072564</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25599,10 +25599,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>71.22040037418695</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891656</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26034,13 +26034,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>5.199738306158622</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>811712.2299868733</v>
+        <v>958766.3020409668</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>811712.2299868733</v>
+        <v>958766.3020409669</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>958766.3020409668</v>
+        <v>958766.3020409669</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>958766.3020409665</v>
+        <v>958766.3020409667</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>958766.3020409667</v>
+        <v>958766.3020409668</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>958766.3020409667</v>
+        <v>958766.3020409669</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>958766.3020409669</v>
+        <v>958766.3020409667</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>958766.3020409669</v>
+        <v>958766.3020409668</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>958766.3020409667</v>
+        <v>958766.3020409668</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>958766.3020409669</v>
+        <v>958766.3020409667</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>958766.3020409668</v>
+        <v>958766.3020409667</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719632</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="C2" t="n">
         <v>472099.0176719631</v>
@@ -26322,31 +26322,31 @@
         <v>472099.0176719632</v>
       </c>
       <c r="E2" t="n">
-        <v>392146.6638165591</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="F2" t="n">
-        <v>392146.663816559</v>
+        <v>464109.2948217538</v>
       </c>
       <c r="G2" t="n">
+        <v>464109.2948217537</v>
+      </c>
+      <c r="H2" t="n">
         <v>464109.2948217536</v>
       </c>
-      <c r="H2" t="n">
-        <v>464109.2948217535</v>
-      </c>
       <c r="I2" t="n">
-        <v>464109.2948217535</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="J2" t="n">
         <v>464109.2948217536</v>
       </c>
       <c r="K2" t="n">
+        <v>464109.2948217537</v>
+      </c>
+      <c r="L2" t="n">
+        <v>464109.2948217537</v>
+      </c>
+      <c r="M2" t="n">
         <v>464109.2948217536</v>
-      </c>
-      <c r="L2" t="n">
-        <v>464109.2948217536</v>
-      </c>
-      <c r="M2" t="n">
-        <v>464109.2948217535</v>
       </c>
       <c r="N2" t="n">
         <v>464109.2948217537</v>
@@ -26355,7 +26355,7 @@
         <v>464109.2948217537</v>
       </c>
       <c r="P2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
     </row>
     <row r="3">
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>309843.0334598196</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>82135.83059545122</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314474</v>
+        <v>90354.06702314482</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314477</v>
+        <v>90354.06702314479</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314477</v>
+        <v>90354.0670231448</v>
       </c>
       <c r="E4" t="n">
-        <v>10990.29103211609</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
-        <v>10990.29103211609</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
         <v>11167.03225179351</v>
@@ -26478,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1054933.735640167</v>
+        <v>-1054933.735640168</v>
       </c>
       <c r="C6" t="n">
-        <v>273811.0100874251</v>
+        <v>273811.010087425</v>
       </c>
       <c r="D6" t="n">
         <v>273811.0100874251</v>
       </c>
       <c r="E6" t="n">
-        <v>306850.0322230497</v>
+        <v>26059.89168434066</v>
       </c>
       <c r="F6" t="n">
-        <v>306850.0322230496</v>
+        <v>351472.3534916962</v>
       </c>
       <c r="G6" t="n">
-        <v>41976.69928623337</v>
+        <v>351472.3534916962</v>
       </c>
       <c r="H6" t="n">
-        <v>351819.7327460531</v>
+        <v>351472.3534916959</v>
       </c>
       <c r="I6" t="n">
-        <v>351819.7327460527</v>
+        <v>351472.3534916961</v>
       </c>
       <c r="J6" t="n">
-        <v>134288.5303487754</v>
+        <v>133941.1510944186</v>
       </c>
       <c r="K6" t="n">
-        <v>351819.732746053</v>
+        <v>351472.3534916961</v>
       </c>
       <c r="L6" t="n">
-        <v>351819.7327460529</v>
+        <v>351472.3534916961</v>
       </c>
       <c r="M6" t="n">
-        <v>351819.7327460529</v>
+        <v>266417.3255561841</v>
       </c>
       <c r="N6" t="n">
-        <v>351819.7327460531</v>
+        <v>351472.3534916961</v>
       </c>
       <c r="O6" t="n">
-        <v>269683.9021506018</v>
+        <v>351472.3534916961</v>
       </c>
       <c r="P6" t="n">
-        <v>351819.7327460531</v>
+        <v>351472.353491696</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>278.1987997483752</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>341.3068326973552</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>341.3068326973552</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>341.3068326973552</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>13.25124995511955</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>331.8898480104186</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>86.32560112949579</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27545,7 +27545,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>105.2833318990669</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27590,19 +27590,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>164.2164060363229</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>270.4601319683921</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27779,10 +27779,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,7 +27824,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>53.94492190635023</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>96.75689457087691</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27858,10 +27858,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>341.8069800164737</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>277.2566436803255</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>170.2699669671996</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28025,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28061,22 +28061,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -30282,7 +30282,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30392,7 +30392,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>-2.28561599164738e-12</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353155</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32314,37 +32314,37 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>677.7372574190233</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422584</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L21" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>538.5853835133134</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32700,37 +32700,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32739,10 +32739,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32788,22 +32788,22 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>616.9033572954401</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,10 +32815,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32864,28 +32864,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32894,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -33028,7 +33028,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>381.6404378718165</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33037,13 +33037,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33265,7 +33265,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33274,13 +33274,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33502,22 +33502,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33736,19 +33736,19 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>592.1874941409598</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33757,7 +33757,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33970,16 +33970,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,13 +33988,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34207,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34444,10 +34444,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34456,16 +34456,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>169.2687847673337</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609565</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>535.1410129745789</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678994</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>396.4513495912951</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789205</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36436,22 +36436,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>485.5616452121067</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992797</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36524,19 +36524,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>243.7989988974575</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36685,13 +36685,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36913,7 +36913,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36922,13 +36922,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37384,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>453.6331143610856</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37405,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,13 +37636,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38104,16 +38104,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>27.13475084531539</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1129676.524615128</v>
+        <v>1132831.44395735</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283193</v>
+        <v>1042617.113969143</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11133453.37367292</v>
+        <v>10877020.40198928</v>
       </c>
     </row>
     <row r="11">
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>17.35112070699443</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>274.7944255145757</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>39.47168301525389</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>42.29200062049986</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>22.79319361026375</v>
       </c>
       <c r="E5" t="n">
-        <v>111.4702381038696</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>135.8241034250917</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1141,10 +1141,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>262.371413375079</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>92.47445699814351</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1296,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>27.69650205144028</v>
       </c>
       <c r="U10" t="n">
-        <v>71.67037196991727</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>188.7011904212664</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444141</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>81.278598673301</v>
+        <v>163.6898441249708</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1615,16 +1615,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>174.7869190180888</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1776,13 +1776,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>98.12640288586348</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>186.9166231085228</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>20.92847288552853</v>
       </c>
       <c r="F19" t="n">
-        <v>31.26260713376563</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2241,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>93.62264337260652</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>6.434538210426389</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8253826161909023</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>76.17049831699767</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>253.2918698186439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2952,22 +2952,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>121.8000472740347</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3201,7 +3201,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>108.5813113004299</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3426,10 +3426,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3438,7 +3438,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>41.74133133758713</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3562,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229352</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>41.02686156549824</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3793,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3909,10 +3909,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>74.20064764874429</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4149,7 +4149,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>55.5207962406042</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2047.583838282732</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
         <v>3325.60582160917</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V2" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W2" t="n">
-        <v>3197.788768583745</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="X2" t="n">
-        <v>2824.323010322666</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="Y2" t="n">
-        <v>2434.183678346854</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4400,22 +4400,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4424,13 +4424,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2383.578154064437</v>
+        <v>777.6936570343842</v>
       </c>
       <c r="C4" t="n">
-        <v>2214.64197113653</v>
+        <v>608.7574741064773</v>
       </c>
       <c r="D4" t="n">
-        <v>2064.525331724195</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E4" t="n">
-        <v>1916.612238141801</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F4" t="n">
-        <v>1769.722290643891</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G4" t="n">
-        <v>1602.01945401861</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134515</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399796</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396718</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.775364366698</v>
+        <v>1884.575355542532</v>
       </c>
       <c r="S4" t="n">
-        <v>3235.775364366698</v>
+        <v>1884.575355542532</v>
       </c>
       <c r="T4" t="n">
-        <v>3014.008748936224</v>
+        <v>1662.808740112058</v>
       </c>
       <c r="U4" t="n">
-        <v>3014.008748936224</v>
+        <v>1662.808740112058</v>
       </c>
       <c r="V4" t="n">
-        <v>3014.008748936224</v>
+        <v>1408.124251906171</v>
       </c>
       <c r="W4" t="n">
-        <v>3014.008748936224</v>
+        <v>1408.124251906171</v>
       </c>
       <c r="X4" t="n">
-        <v>2786.019198038207</v>
+        <v>1180.134701008154</v>
       </c>
       <c r="Y4" t="n">
-        <v>2565.226618894677</v>
+        <v>959.3421218646239</v>
       </c>
     </row>
     <row r="5">
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2071.975386180639</v>
+        <v>1712.341567565137</v>
       </c>
       <c r="C5" t="n">
-        <v>1703.012869240228</v>
+        <v>1343.379050624725</v>
       </c>
       <c r="D5" t="n">
-        <v>1344.747170633477</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4576,43 +4576,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2862.54649786615</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.975386180639</v>
+        <v>2489.08073960507</v>
       </c>
       <c r="Y5" t="n">
-        <v>2071.975386180639</v>
+        <v>2098.941407629259</v>
       </c>
     </row>
     <row r="6">
@@ -4640,28 +4640,28 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064544</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4713,19 +4713,19 @@
         <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
         <v>315.6219318279954</v>
@@ -4749,19 +4749,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1700.268026780272</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1478.501411349798</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="U7" t="n">
-        <v>1478.501411349798</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="V7" t="n">
-        <v>1478.501411349798</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
         <v>1478.501411349798</v>
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1771.418012197379</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1402.455495256967</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1044.189796650217</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1044.189796650217</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4840,16 +4840,16 @@
         <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W8" t="n">
-        <v>3215.315153136266</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X8" t="n">
-        <v>3121.906610713899</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>2158.017852261501</v>
       </c>
     </row>
     <row r="9">
@@ -4877,28 +4877,28 @@
         <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>697.9541770656748</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218342</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1617.801941974423</v>
       </c>
       <c r="U10" t="n">
-        <v>1854.900232967364</v>
+        <v>1617.801941974423</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>1617.801941974423</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>1328.384771937462</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>1100.395221039445</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>879.6026418959145</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>1559.116588708439</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G11" t="n">
-        <v>379.830887436269</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192602</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>2513.328941997115</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>2139.863183736035</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>1749.723851760223</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>620.0116743354683</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021785</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1468.439756756785</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2020.349486996072</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2443.97263649114</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>680.448174698413</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C13" t="n">
-        <v>680.448174698413</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614391</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.547769317909</v>
+        <v>231.8553933260934</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1012.316163281156</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>654.0504646744059</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>654.0504646744059</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>243.0645598847984</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>243.0645598847984</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>1767.87852028569</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>620.0116743354683</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="C16" t="n">
-        <v>847.644273983533</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>1828.176969415903</v>
       </c>
       <c r="T16" t="n">
-        <v>2379.917379832663</v>
+        <v>1828.176969415903</v>
       </c>
       <c r="U16" t="n">
-        <v>2191.112710026075</v>
+        <v>1539.074102541547</v>
       </c>
       <c r="V16" t="n">
-        <v>1936.428221820188</v>
+        <v>1284.38961433566</v>
       </c>
       <c r="W16" t="n">
-        <v>1647.011051783227</v>
+        <v>994.9724442986994</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.02150088521</v>
+        <v>766.9828934006821</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>546.190314257152</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111712</v>
@@ -5521,46 +5521,46 @@
         <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>983.3556038098237</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>814.4194208819168</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>664.3027814695811</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E19" t="n">
-        <v>516.389687887188</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5700,25 +5700,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924458</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.203368718571</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.786198681611</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1385.796647783593</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>1165.004068640063</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>726.955532171245</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C22" t="n">
-        <v>558.0193492433381</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="D22" t="n">
-        <v>407.9027098310023</v>
+        <v>650.3841300523919</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>502.4710364699988</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>355.5810889720884</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>188.3849896869684</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2190.563011941682</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U22" t="n">
-        <v>1901.48778528588</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V22" t="n">
-        <v>1646.803297079993</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W22" t="n">
-        <v>1357.386127043032</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X22" t="n">
-        <v>1129.396576145015</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y22" t="n">
-        <v>908.6039970014847</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="23">
@@ -5986,13 +5986,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332386</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797186</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6229,19 +6229,19 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>632.7557007032921</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6411,25 +6411,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>2191.112710026075</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1936.428221820188</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1647.011051783227</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1419.02150088521</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="29">
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6600,19 +6600,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>363.7369613277355</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>363.7369613277355</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>216.8470138298251</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6697,7 +6697,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6706,13 +6706,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6885,25 +6885,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704551</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806534</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583878</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="35">
@@ -6925,31 +6925,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>580.8993044876688</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D37" t="n">
-        <v>430.7826650753331</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>282.8695714929399</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>135.9796239950296</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7171,16 +7171,16 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7189,10 +7189,10 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852254</v>
@@ -7201,13 +7201,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>916.3099000622261</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>747.3737171343192</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>597.2570777219835</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>449.3439841395904</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>302.454036641676</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>135.2579373565559</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797186</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7405,58 +7405,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>802.9288273958734</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>633.9926444679666</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>483.8760050556308</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>335.9629114732377</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>1977.461080510508</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1722.776592304621</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.359422267661</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>1205.369871369643</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>984.5772922261132</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2390.881471216014</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2171.280006238955</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>1882.204779583153</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V46" t="n">
-        <v>1627.520291377266</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.103121340305</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>945.402603663004</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>194.0326512422142</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>98.55338150863629</v>
+        <v>16.14213605696645</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23503,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>119.8208453692317</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,10 +23548,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>91.64262244557841</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>99.26785128072137</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23746,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="F19" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>46.67206947361737</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>210.9709121168619</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>144.5956654067404</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>72.44497470121469</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24651,13 +24651,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>32.89260457060021</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24840,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>43.72409101823415</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25125,7 +25125,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>110.0033420516649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>123.7828069546817</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>99.26785128072564</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25599,10 +25599,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25639,7 +25639,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25797,10 +25797,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>71.22040037418695</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26073,7 +26073,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>125.5054897610404</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>958766.3020409668</v>
+        <v>811712.2299868732</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>958766.3020409669</v>
+        <v>811712.2299868732</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>958766.3020409669</v>
+        <v>958766.3020409667</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>958766.3020409667</v>
+        <v>958766.3020409668</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>958766.3020409668</v>
+        <v>958766.3020409667</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>958766.3020409669</v>
+        <v>958766.3020409667</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>958766.3020409668</v>
+        <v>958766.3020409667</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>958766.3020409668</v>
+        <v>958766.3020409666</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>958766.3020409668</v>
+        <v>958766.3020409667</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>958766.3020409667</v>
+        <v>958766.3020409668</v>
       </c>
     </row>
   </sheetData>
@@ -26316,22 +26316,22 @@
         <v>472099.0176719631</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.0176719633</v>
       </c>
       <c r="D2" t="n">
         <v>472099.0176719632</v>
       </c>
       <c r="E2" t="n">
+        <v>392146.6638165587</v>
+      </c>
+      <c r="F2" t="n">
+        <v>392146.663816559</v>
+      </c>
+      <c r="G2" t="n">
         <v>464109.2948217536</v>
       </c>
-      <c r="F2" t="n">
-        <v>464109.2948217538</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>464109.2948217537</v>
-      </c>
-      <c r="H2" t="n">
-        <v>464109.2948217536</v>
       </c>
       <c r="I2" t="n">
         <v>464109.2948217536</v>
@@ -26343,16 +26343,16 @@
         <v>464109.2948217537</v>
       </c>
       <c r="L2" t="n">
+        <v>464109.2948217536</v>
+      </c>
+      <c r="M2" t="n">
         <v>464109.2948217537</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>464109.2948217536</v>
       </c>
-      <c r="N2" t="n">
-        <v>464109.2948217537</v>
-      </c>
       <c r="O2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="P2" t="n">
         <v>464109.2948217536</v>
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.14093847211916e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>309843.0334598199</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>82135.83059545125</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314482</v>
+        <v>90354.06702314489</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314479</v>
+        <v>90354.06702314483</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.0670231448</v>
+        <v>90354.06702314483</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179351</v>
+        <v>10990.29103211609</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179351</v>
+        <v>10990.29103211609</v>
       </c>
       <c r="G4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="I4" t="n">
         <v>11167.03225179351</v>
@@ -26478,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1054933.735640168</v>
+        <v>-1054933.735640167</v>
       </c>
       <c r="C6" t="n">
-        <v>273811.010087425</v>
+        <v>273811.0100874248</v>
       </c>
       <c r="D6" t="n">
         <v>273811.0100874251</v>
       </c>
       <c r="E6" t="n">
-        <v>26059.89168434066</v>
+        <v>306502.4132932433</v>
       </c>
       <c r="F6" t="n">
-        <v>351472.3534916962</v>
+        <v>306502.4132932433</v>
       </c>
       <c r="G6" t="n">
-        <v>351472.3534916962</v>
+        <v>41941.96136079742</v>
       </c>
       <c r="H6" t="n">
-        <v>351472.3534916959</v>
+        <v>351784.9948206173</v>
       </c>
       <c r="I6" t="n">
-        <v>351472.3534916961</v>
+        <v>351784.9948206173</v>
       </c>
       <c r="J6" t="n">
-        <v>133941.1510944186</v>
+        <v>134253.7924233399</v>
       </c>
       <c r="K6" t="n">
-        <v>351472.3534916961</v>
+        <v>351784.9948206173</v>
       </c>
       <c r="L6" t="n">
-        <v>351472.3534916961</v>
+        <v>351784.9948206173</v>
       </c>
       <c r="M6" t="n">
-        <v>266417.3255561841</v>
+        <v>351784.9948206174</v>
       </c>
       <c r="N6" t="n">
-        <v>351472.3534916961</v>
+        <v>351784.9948206173</v>
       </c>
       <c r="O6" t="n">
-        <v>351472.3534916961</v>
+        <v>269649.164225166</v>
       </c>
       <c r="P6" t="n">
-        <v>351472.353491696</v>
+        <v>351784.9948206173</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26962,19 +26962,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -27441,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>331.8898480104186</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>111.4435131414779</v>
       </c>
     </row>
     <row r="3">
@@ -27551,10 +27551,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>105.2833318990669</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.64015204954751</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27596,7 +27596,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>331.8898480104192</v>
       </c>
       <c r="E5" t="n">
-        <v>270.4601319683921</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>53.94492190635023</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>61.76674224145199</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27861,10 +27861,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>144.5046323666324</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,16 +27912,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>277.2566436803255</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>191.8524472247289</v>
       </c>
       <c r="U10" t="n">
-        <v>214.5414662356956</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -30282,7 +30282,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30392,7 +30392,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.28561599164738e-12</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>250.1723312270667</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,16 +32311,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>246.9596973201446</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,10 +32329,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32548,16 +32548,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>175.6052721551106</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>246.9596973201446</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32569,7 +32569,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33274,10 +33274,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33511,10 +33511,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33748,10 +33748,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>110.1905571410452</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>94.62350453597691</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>108.4053175402704</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,10 +35977,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>37.76383318075158</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>108.4053175402704</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36217,7 +36217,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36922,10 +36922,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37159,10 +37159,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37396,10 +37396,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
